--- a/plantillas/Plantilla_Carga_Productos.xlsx
+++ b/plantillas/Plantilla_Carga_Productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shoop\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE9F329-CC1B-4632-81F5-57B7DA5B8869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4599CD96-6D9B-47CC-972C-2A6EFA95A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,13 +142,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,28 +498,198 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plantillas/Plantilla_Carga_Productos.xlsx
+++ b/plantillas/Plantilla_Carga_Productos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shoop\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4599CD96-6D9B-47CC-972C-2A6EFA95A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E916EC-ADBE-4E63-9F18-75840E980060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,28 +498,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
